--- a/ML_CS7641/Optimization/FilpFlop-prob_size=150/final/result-FilpFlop-prob_size=150.xlsx
+++ b/ML_CS7641/Optimization/FilpFlop-prob_size=150/final/result-FilpFlop-prob_size=150.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.713886022567749</v>
+        <v>2.646934747695923</v>
       </c>
       <c r="C2" t="n">
         <v>140</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07649135589599609</v>
+        <v>0.07613611221313477</v>
       </c>
       <c r="C3" t="n">
         <v>123</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.0319037437439</v>
+        <v>78.03191876411438</v>
       </c>
       <c r="C4" t="n">
         <v>138</v>
